--- a/data/municipal_elections/raw/bayern/bayern_1990_krfr_staedte.xlsx
+++ b/data/municipal_elections/raw/bayern/bayern_1990_krfr_staedte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flosic/Documents/GitHub/german_election_data/data/municipal_elections/raw/bayern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C96D06-0CA0-0E49-99BC-95C41CB20856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9C448-26C7-5F41-AE29-DF8416984E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1786,8 +1786,8 @@
   </sheetPr>
   <dimension ref="A1:AR109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2159,7 +2159,7 @@
       <c r="A5" s="6">
         <v>9162</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="7">
